--- a/data/data Poland PKB.xlsx
+++ b/data/data Poland PKB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bartosz/github/bogdan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAE77CF-DC75-8B44-8ACE-07D7B0D5D133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0977F6EF-4C2A-7848-946E-48AFD336BA53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>2018 03</t>
   </si>
@@ -353,16 +353,18 @@
   </si>
   <si>
     <t>2002 02</t>
+  </si>
+  <si>
+    <t>2019 04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -891,7 +893,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -901,9 +903,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -921,12 +920,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1257,515 +1255,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.1640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="47.25" customHeight="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="47.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="3">
         <v>45365.725025949898</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="3">
         <v>48077.532610407303</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="E3"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="3">
         <v>47477.687441698807</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="E4"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="3">
         <v>56080.60240214556</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="E5"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="3">
         <v>59861.192855797213</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="E6"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="3">
         <v>69446.962016571793</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="E7"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="3">
         <v>68525.249255035378</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="E8"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="3">
         <v>69633.2</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="E9"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="3">
         <v>74286.600000000006</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="E10"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="3">
         <v>79376.800000000003</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="E11"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="3">
         <v>84807.1</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="E12"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="3">
         <v>85272.5</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="E13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="3">
         <v>92876.1</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="E14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="3">
         <v>98477.4</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="E15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="3">
         <v>111200.6</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="E16"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="3">
         <v>103781.8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="E17"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="3">
         <v>112983</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="E18"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="3">
         <v>119153.5</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="E19"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="3">
         <v>136432.1</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="E20"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="3">
         <v>123698.7</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="E21"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="3">
         <v>133371.70000000001</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="E22"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B23" s="3">
         <v>140014.70000000001</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="E23"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="3">
         <v>156475</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="E24"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B25" s="3">
         <v>134439.70000000001</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="E25"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B26" s="3">
         <v>146970.5</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="E26"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B27" s="3">
         <v>155269.29999999999</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="E27"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B28" s="3">
         <v>178435.8</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="E28"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B29" s="3">
         <v>152342</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="E29"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B30" s="3">
         <v>166059.4</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="E30"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B31" s="3">
         <v>170985.4</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="E31"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="3">
         <v>195595.1</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="E32"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="3">
         <v>165440.6</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="E33"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B34" s="3">
         <v>176520.3</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="E34"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B35" s="3">
         <v>179581.5</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="E35"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="3">
         <v>200032.9</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="E36"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="3">
-        <v>177852.3</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="E37"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="B37" s="14">
+        <v>207703.8</v>
+      </c>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B38" s="3">
-        <v>188797.2</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="E38"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+        <v>177852.3</v>
+      </c>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B39" s="3">
-        <v>191797.2</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="E39"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+        <v>188797.2</v>
+      </c>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="3">
         <v>193356.1</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="E40"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="14.5" customHeight="1">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B41" s="3">
         <v>214839</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="E41"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1773,7 +1646,7 @@
         <v>187094</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1781,7 +1654,7 @@
         <v>200288.4</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1789,7 +1662,7 @@
         <v>201389.6</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1797,7 +1670,7 @@
         <v>226098.8</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1805,7 +1678,7 @@
         <v>204124</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1813,7 +1686,7 @@
         <v>216323.8</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1881,7 +1754,7 @@
       <c r="A56" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>258611.1</v>
       </c>
     </row>
@@ -1889,7 +1762,7 @@
       <c r="A57" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>300238.5</v>
       </c>
     </row>
@@ -1897,7 +1770,7 @@
       <c r="A58" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>267741.40000000002</v>
       </c>
     </row>
@@ -1905,7 +1778,7 @@
       <c r="A59" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>281485.5</v>
       </c>
     </row>
@@ -1913,7 +1786,7 @@
       <c r="A60" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>288454.5</v>
       </c>
     </row>
@@ -1921,7 +1794,7 @@
       <c r="A61" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>330114.2</v>
       </c>
     </row>
@@ -1929,7 +1802,7 @@
       <c r="A62" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>295334.5</v>
       </c>
     </row>
@@ -1937,7 +1810,7 @@
       <c r="A63" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <v>309900.2</v>
       </c>
     </row>
@@ -1945,136 +1818,135 @@
       <c r="A64" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <v>314556</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <v>349566.9</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="9">
         <v>314116.90000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <v>326282.90000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="9">
         <v>331493.8</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="10">
         <v>369987.2</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <v>327425.8</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <v>343130.6</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <v>349367.5</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="10">
         <v>398899.7</v>
       </c>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="9">
         <v>349374.3</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <v>369803.5</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="9">
         <v>376124.2</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <v>429376.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="10">
         <v>370450.1</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="10">
         <v>388258</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="9">
         <v>393724.7</v>
       </c>
     </row>
@@ -2082,7 +1954,7 @@
       <c r="A81" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="9">
         <v>442167.4</v>
       </c>
     </row>
@@ -2090,7 +1962,7 @@
       <c r="A82" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="9">
         <v>384582.7</v>
       </c>
     </row>
@@ -2098,7 +1970,7 @@
       <c r="A83" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="9">
         <v>400741.8</v>
       </c>
     </row>
@@ -2106,7 +1978,7 @@
       <c r="A84" t="s">
         <v>15</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="9">
         <v>412872.4</v>
       </c>
     </row>
@@ -2114,7 +1986,7 @@
       <c r="A85" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <v>463855.4</v>
       </c>
     </row>
@@ -2122,7 +1994,7 @@
       <c r="A86" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <v>403121.2</v>
       </c>
     </row>
@@ -2130,7 +2002,7 @@
       <c r="A87" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="10">
         <v>418370.2</v>
       </c>
     </row>
@@ -2178,7 +2050,7 @@
       <c r="A93" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="9">
         <v>509268.9</v>
       </c>
     </row>
@@ -2186,7 +2058,7 @@
       <c r="A94" t="s">
         <v>25</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="9">
         <v>428292.3</v>
       </c>
     </row>
@@ -2194,7 +2066,7 @@
       <c r="A95" t="s">
         <v>26</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="9">
         <v>449436.9</v>
       </c>
     </row>
@@ -2202,7 +2074,7 @@
       <c r="A96" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="9">
         <v>453415.1</v>
       </c>
     </row>
@@ -2210,7 +2082,7 @@
       <c r="A97" t="s">
         <v>28</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="10">
         <v>521388.79999999999</v>
       </c>
     </row>
@@ -2218,7 +2090,7 @@
       <c r="A98" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="9">
         <v>456680.7</v>
       </c>
     </row>
@@ -2226,7 +2098,7 @@
       <c r="A99" t="s">
         <v>30</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="9">
         <v>476576.3</v>
       </c>
     </row>
@@ -2234,7 +2106,7 @@
       <c r="A100" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="9">
         <v>490156.4</v>
       </c>
     </row>
@@ -2242,7 +2114,7 @@
       <c r="A101" t="s">
         <v>32</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="9">
         <v>558666.30000000005</v>
       </c>
     </row>
@@ -2250,7 +2122,7 @@
       <c r="A102" t="s">
         <v>33</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="9">
         <v>485355.6</v>
       </c>
     </row>
@@ -2258,7 +2130,7 @@
       <c r="A103" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="11">
+      <c r="B103" s="10">
         <v>503069.1</v>
       </c>
     </row>
@@ -2266,7 +2138,7 @@
       <c r="A104" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="9">
         <v>525299.4</v>
       </c>
     </row>
@@ -2274,7 +2146,7 @@
       <c r="A105" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="11">
+      <c r="B105" s="10">
         <v>597522.6</v>
       </c>
     </row>
@@ -2282,7 +2154,7 @@
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="16">
+      <c r="B106" s="13">
         <v>519952.9</v>
       </c>
     </row>
@@ -2290,7 +2162,7 @@
       <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="16">
+      <c r="B107" s="13">
         <v>545726.6</v>
       </c>
     </row>
@@ -2298,8 +2170,16 @@
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="16">
+      <c r="B108" s="13">
         <v>561044.80000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="3">
+        <v>630000</v>
       </c>
     </row>
   </sheetData>
@@ -2325,11 +2205,11 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2"/>
@@ -2596,162 +2476,162 @@
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="6"/>
+      <c r="B55" s="5"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="8"/>
+      <c r="B56" s="7"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="8"/>
+      <c r="B57" s="7"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="8"/>
+      <c r="B58" s="7"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="8"/>
+      <c r="B59" s="7"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="8"/>
+      <c r="B60" s="7"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="9"/>
+      <c r="B61" s="8"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="10"/>
+      <c r="B62" s="9"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="10"/>
+      <c r="B63" s="9"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="10"/>
+      <c r="B64" s="9"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="10"/>
+      <c r="B65" s="9"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="10"/>
+      <c r="B66" s="9"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="10"/>
+      <c r="B67" s="9"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="11"/>
+      <c r="B68" s="10"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="10"/>
+      <c r="B69" s="9"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="10"/>
+      <c r="B70" s="9"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="10"/>
+      <c r="B71" s="9"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="11"/>
+      <c r="B72" s="10"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="10"/>
+      <c r="B73" s="9"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="10"/>
+      <c r="B74" s="9"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="10"/>
+      <c r="B75" s="9"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="10"/>
+      <c r="B76" s="9"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="11"/>
+      <c r="B77" s="10"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="11"/>
+      <c r="B78" s="10"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="10"/>
+      <c r="B79" s="9"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="10"/>
+      <c r="B80" s="9"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="10"/>
+      <c r="B81" s="9"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="10"/>
+      <c r="B82" s="9"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="10"/>
+      <c r="B83" s="9"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="10"/>
+      <c r="B84" s="9"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="10"/>
+      <c r="B85" s="9"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="11"/>
+      <c r="B86" s="10"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
@@ -2776,67 +2656,67 @@
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="10"/>
+      <c r="B92" s="9"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="10"/>
+      <c r="B93" s="9"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="10"/>
+      <c r="B94" s="9"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="2:5">
-      <c r="B95" s="10"/>
+      <c r="B95" s="9"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="11"/>
+      <c r="B96" s="10"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="10"/>
+      <c r="B97" s="9"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="10"/>
+      <c r="B98" s="9"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="10"/>
+      <c r="B99" s="9"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="2:5">
-      <c r="B100" s="10"/>
+      <c r="B100" s="9"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="10"/>
+      <c r="B101" s="9"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="11"/>
+      <c r="B102" s="10"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="10"/>
+      <c r="B103" s="9"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="2:5">
-      <c r="B104" s="11"/>
+      <c r="B104" s="10"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
     </row>
